--- a/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/IDEPTH_ORACLE_COLLECTED_RESULTS.xlsx
+++ b/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/IDEPTH_ORACLE_COLLECTED_RESULTS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/staque/Development/GitHub/CS-660-Semester-Project-V2/RESULTS/COLLECTED RESULTS/COLLECTED_RESULTS_MAIN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/staque/Development/GitHub/CS-660-Semester-Project-V2/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
     <sheet name="IDEPTH_HOLE_CollectedResults" sheetId="6" r:id="rId7"/>
     <sheet name="IDEPTH_NA_CollectedResults" sheetId="7" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -906,11 +906,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="566712560"/>
-        <c:axId val="567790208"/>
+        <c:axId val="-155209072"/>
+        <c:axId val="-152774528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="566712560"/>
+        <c:axId val="-155209072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="567790208"/>
+        <c:crossAx val="-152774528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -960,7 +960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="567790208"/>
+        <c:axId val="-152774528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1010,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="566712560"/>
+        <c:crossAx val="-155209072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1638,16 +1638,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1219200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3464,6 +3464,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">

--- a/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/IDEPTH_ORACLE_COLLECTED_RESULTS.xlsx
+++ b/RESULTS/COLLECTED ORACLE/COLLECTED ORACLE RESULTS/COLLECTED_RESULTS_MAIN/IDEPTH_ORACLE_COLLECTED_RESULTS.xlsx
@@ -361,6 +361,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>IDEPTH HUMAN ORACLE</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -906,11 +931,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-155209072"/>
-        <c:axId val="-152774528"/>
+        <c:axId val="1405030144"/>
+        <c:axId val="1404742688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-155209072"/>
+        <c:axId val="1405030144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +977,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-152774528"/>
+        <c:crossAx val="1404742688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -960,7 +985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-152774528"/>
+        <c:axId val="1404742688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1035,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-155209072"/>
+        <c:crossAx val="1405030144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
